--- a/xlsx/美国法警_intext.xlsx
+++ b/xlsx/美国法警_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美国司法部</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国法警</t>
+    <t>政策_政策_美国_美国法警</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%85%B5%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>春田兵工廠</t>
+    <t>春田兵工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1911%E6%89%8B%E6%A7%8D</t>
   </si>
   <si>
-    <t>M1911手槍</t>
+    <t>M1911手枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AR-15%E8%87%AA%E5%8B%95%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>AR-15自動步槍</t>
+    <t>AR-15自动步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%98%8E%E7%99%BB870%E6%B3%B5%E5%8B%95%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
   </si>
   <si>
-    <t>雷明登870泵動式霰彈槍</t>
+    <t>雷明登870泵动式霰弹枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -149,37 +149,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國住房及城市發展部</t>
+    <t>美国住房及城市发展部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國運輸部</t>
+    <t>美国运输部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
